--- a/APP_PERSONAS/src/test/resources/datadriven/registro/registro.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/registro/registro.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Datos" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -55,15 +55,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>1037655531</t>
-  </si>
-  <si>
-    <t>userqa10</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
     <t>4321</t>
   </si>
   <si>
@@ -83,13 +74,31 @@
   </si>
   <si>
     <t>ACTIVO</t>
+  </si>
+  <si>
+    <t>correoUsuario</t>
+  </si>
+  <si>
+    <t>nuevoUser</t>
+  </si>
+  <si>
+    <t>jalzate@todo1.net</t>
+  </si>
+  <si>
+    <t>1010111</t>
+  </si>
+  <si>
+    <t>2443</t>
+  </si>
+  <si>
+    <t>pruebasqa99</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +112,14 @@
       <color indexed="8"/>
       <name val="Mic Shell Dlg"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -149,10 +166,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -160,8 +178,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -464,18 +486,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" customWidth="1"/>
+    <col min="14" max="14" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,58 +543,65 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="I2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="L2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>22</v>
       </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="M15" s="8"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]Listas!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>G2:J2</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/APP_PERSONAS/src/test/resources/datadriven/registro/registro.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/registro/registro.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -92,6 +92,18 @@
   </si>
   <si>
     <t>pruebasqa99</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>423698529</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>pruebasqa90</t>
   </si>
 </sst>
 </file>
@@ -489,7 +501,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -594,14 +606,59 @@
         <v>22</v>
       </c>
     </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="15" spans="1:14">
       <c r="M15" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="N2" r:id="rId1"/>
+    <hyperlink ref="N3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
--- a/APP_PERSONAS/src/test/resources/datadriven/registro/registro.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/registro/registro.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -104,13 +104,31 @@
   </si>
   <si>
     <t>pruebasqa90</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>95400152</t>
+  </si>
+  <si>
+    <t>sandrita69</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>0370</t>
+  </si>
+  <si>
+    <t>Alterno</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +147,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -182,7 +207,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -193,6 +218,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -501,7 +527,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -582,7 +608,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>15</v>
@@ -648,6 +674,44 @@
       </c>
       <c r="N3" s="9" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75">
+      <c r="A4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -660,5 +724,17 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Listas!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>G4:J4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>